--- a/data/trans_camb/P12B1_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +680,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,27</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,37 +690,67 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,8</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,53</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>12,89</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>15,05</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>14,35</t>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -685,7 +763,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,14</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,37 +773,67 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,46</t>
+          <t>0,0; 4,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,08</t>
+          <t>-1,9; 3,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 3,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,29</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,98</t>
+          <t>-1,04; 3,34</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 1,66</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,82</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,45</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 2,02</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 1,79</t>
         </is>
       </c>
     </row>
@@ -753,32 +861,62 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>11,93%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>55,07%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-5,98%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>28,79%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36,75</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,26</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-21,47</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,7</t>
+          <t>-8,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,26</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>-2,39</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-5,66</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 80,32</t>
+          <t>-0,55; 13,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,65; 53,8</t>
+          <t>-2,85; 1,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-51,91; -6,85</t>
+          <t>0,48; 23,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-74,12; 41,73</t>
+          <t>-26,03; -2,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-79,8; 35,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,21; 52,48</t>
+          <t>-2,13; 1,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 59,4</t>
+          <t>-1,93; 2,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 30,67</t>
+          <t>0,87; 8,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-38,56; 25,48</t>
+          <t>-6,71; 1,89</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 4,34</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 8,18</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 1,26</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 14,57</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-14,52; -2,1</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 1,89</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>171,19%</t>
+          <t>213,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>57,12%</t>
+          <t>-17,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>468,61%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-40,18%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-57,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,95%</t>
+          <t>-14,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>-11,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,41%</t>
+          <t>359,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-26,24%</t>
+          <t>-53,37%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>43,43%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>129,45%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-15,21%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>431,82%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-85,05%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>40,47%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1265,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,28; —</t>
+          <t>-63,02; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,7 +1275,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,48; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,17 +1295,47 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 603,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-81,76; 273,14</t>
+          <t>-30,98; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 204,35</t>
+          <t>-100,0; 114,51</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-43,67; 1815,35</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-86,62; 318,37</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>38,11; 2569,03</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -44,99</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-19,91</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>27,46</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,24</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,38</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,26</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,68</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-67,35; 74,54</t>
+          <t>-6,66; 6,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-67,28; 72,73</t>
+          <t>-5,4; 8,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-92,44; 57,02</t>
+          <t>-9,21; 4,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 51,42</t>
+          <t>-1,0; 12,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 52,09</t>
+          <t>0,4; 13,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 59,27</t>
+          <t>0,07; 5,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 45,44</t>
+          <t>-0,87; 3,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 50,24</t>
+          <t>0,9; 8,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 40,74</t>
+          <t>-5,52; 2,15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 5,16</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 4,23</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 5,0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 4,74</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 5,93</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 7,89</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>46,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-35,45%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>114,61%</t>
+          <t>103,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>113,69%</t>
+          <t>351,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>110,09%</t>
+          <t>141,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>54,46%</t>
+          <t>206,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>-22,99%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>57,16%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>68,19%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>59,89%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>105,24%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>29,6%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>178,21%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1616,62 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 457,82</t>
+          <t>-37,41; 627,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 498,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,96; 563,19</t>
+          <t>-15,15; 735,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,04; 301,91</t>
+          <t>-41,85; 491,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 312,29</t>
+          <t>4,87; 938,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-81,02; 262,6</t>
+          <t>-73,74; 72,9</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-58,72; 421,14</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-65,72; 530,07</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-71,96; 533,49</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-45,31; 590,23</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-38,42; 189,63</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-25,03; 654,58</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,7</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,92</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 25,3</t>
+          <t>-0,7; 1,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 27,69</t>
+          <t>-0,34; 3,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 18,74</t>
+          <t>-0,72; 1,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 14,39</t>
+          <t>-0,74; 2,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 2,1</t>
+          <t>-3,3; 1,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 22,79</t>
+          <t>-1,95; 1,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 13,13</t>
+          <t>-3,03; 0,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 11,3</t>
+          <t>-1,05; 4,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 15,02</t>
+          <t>-3,99; 1,15</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 2,08</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,72; 1,25</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 1,14</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 2,0</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 1,33</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 1,17</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>171,21%</t>
+          <t>163,07%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>249,23%</t>
+          <t>283,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,79%</t>
+          <t>161,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-76,5%</t>
+          <t>-20,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>-10,69%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>-74,85%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>-40,06%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>18,51%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>38,38%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>27,07%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>68,46%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-7,25%</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1967,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 695,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1480,6 +1978,36 @@
       <c r="K19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-80,49; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-89,6; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 343,57</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 335,65</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>11,49</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-2,32</t>
-        </is>
-      </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 0,0</t>
+          <t>-3,05; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-32,8; 0,0</t>
+          <t>-3,05; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 11,9</t>
+          <t>-2,27; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 3,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,57; 29,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 0,0</t>
+          <t>0,0; 4,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 18,85</t>
+          <t>-1,79; 2,02</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 1,3</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 0,0</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 0,0</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 1,34</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 2,47</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 1,55</t>
         </is>
       </c>
     </row>
@@ -1612,37 +2200,67 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-5,61%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>45,58%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>42,1%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-40,77%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="N22" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>294,51%</t>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>61,16%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>172,37%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-17,94%</t>
         </is>
       </c>
     </row>
@@ -1698,6 +2316,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1712,7 +2360,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>9,88</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1722,29 +2370,29 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>5,25</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
-      </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
@@ -1752,7 +2400,37 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -1765,7 +2443,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,87</t>
+          <t>0,0; 7,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1775,27 +2453,27 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,18</t>
+          <t>0,0; 2,49</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 4,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 3,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -1805,7 +2483,37 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 0,0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,66</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,09</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-0,22; 2,07</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 1,07</t>
         </is>
       </c>
     </row>
@@ -1833,32 +2541,62 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>224,83%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>82,78%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>219,64%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-31,17%</t>
         </is>
       </c>
     </row>
@@ -1914,6 +2652,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>12,14</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 27,58</t>
+          <t>-0,61; 2,73</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 24,12</t>
+          <t>-1,14; 1,88</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 11,21</t>
+          <t>0,04; 5,19</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 11,91</t>
+          <t>-3,11; 1,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 6,44</t>
+          <t>-0,17; 2,72</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 16,26</t>
+          <t>-0,19; 1,23</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 16,44</t>
+          <t>-0,44; 0,78</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 12,84</t>
+          <t>0,56; 2,48</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 11,31</t>
+          <t>-1,88; 0,39</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 0,95</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 1,65</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 1,04</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 2,97</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 0,65</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 1,65</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>124,66%</t>
+          <t>113,19%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>35,76%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>171,97%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>-10,19%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>130,68%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>115,91%</t>
+          <t>77,86%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>101,4%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>232,06%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>51,87%</t>
+          <t>-32,67%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>97,97%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>28,87%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>197,83%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-20,55%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>52,25%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-70,07; 683,32</t>
+          <t>-68,03; 671,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-73,75; 521,5</t>
+          <t>-78,22; 484,29</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-90,22; 330,78</t>
+          <t>-50,6; 1000,98</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 328,0</t>
+          <t>-73,96; 107,23</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 207,07</t>
+          <t>-35,05; 548,65</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 466,98</t>
+          <t>-25,34; 363,13</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 314,31</t>
+          <t>-52,51; 253,22</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-47,46; 208,88</t>
+          <t>47,53; 701,88</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 213,49</t>
+          <t>-66,77; 28,05</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-55,18; 106,8</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-36,03; 317,02</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-60,15; 190,65</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>8,45; 536,9</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-58,73; 45,43</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-17,26; 194,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
